--- a/biology/Médecine/Château_de_Bahrendorf/Château_de_Bahrendorf.xlsx
+++ b/biology/Médecine/Château_de_Bahrendorf/Château_de_Bahrendorf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Bahrendorf</t>
+          <t>Château_de_Bahrendorf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Bahrendorf est un ancien château de Saxe-Anhalt en Allemagne, situé à Bahrendorf dans la Magdeburger Börde, ou plaine de Magdebourg.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Bahrendorf</t>
+          <t>Château_de_Bahrendorf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château a été construit en 1908 par l'architecte Paul Schultze-Naumburg pour la famille Schaeper. C'est un château néobaroque de style germanique à trois corps de bâtiment avec des éléments néoclassiques. Il est entouré d'un parc avec deux petits lacs.
 Le château sert de clinique de cancérologie de 1945 à 2002. Le docteur Walter Lämmerzahl en fait un centre de soins d'oncologie de 246 lits. C'est aujourd'hui un centre de soins et de convalescence rénové depuis 2002.
